--- a/target/classes/ProductosBusqueda.xlsx
+++ b/target/classes/ProductosBusqueda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valer\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natalia\Desktop\Universidad_6\Calidad\STORE_2511\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D5D3CE-0543-4B37-AF6A-9D0CF6FACC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F1676E-0104-4AF0-98DC-2F406DD84868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12550" yWindow="1650" windowWidth="12320" windowHeight="11170" xr2:uid="{012D003F-895D-40AA-BDEA-D8500F49FC76}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{012D003F-895D-40AA-BDEA-D8500F49FC76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Categoria</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>Samsung SyncMaster 941BW</t>
+  </si>
+  <si>
+    <t>Cameras</t>
+  </si>
+  <si>
+    <t>Nikon D300</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S25 ultra</t>
   </si>
 </sst>
 </file>
@@ -156,9 +165,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -196,7 +205,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -302,7 +311,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -444,7 +453,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -452,15 +461,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4250F871-21CA-4777-B2E6-BF9AACCED7DB}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="70" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -486,7 +495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -498,7 +507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="147" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="152.25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -509,7 +518,29 @@
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/ProductosBusqueda.xlsx
+++ b/target/classes/ProductosBusqueda.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natalia\Desktop\Universidad_6\Calidad\STORE_2511\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UNI\SEM 6\calidad\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F1676E-0104-4AF0-98DC-2F406DD84868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84464259-8144-4392-B688-0B7855893847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{012D003F-895D-40AA-BDEA-D8500F49FC76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{012D003F-895D-40AA-BDEA-D8500F49FC76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -464,12 +464,12 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -492,10 +492,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -507,7 +507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="152.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="147" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -521,7 +521,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>

--- a/target/classes/ProductosBusqueda.xlsx
+++ b/target/classes/ProductosBusqueda.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UNI\SEM 6\calidad\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natalia\Desktop\Universidad_6\Calidad\STORE_2511\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84464259-8144-4392-B688-0B7855893847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35643175-D48E-493E-925B-E79DA8BDB741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{012D003F-895D-40AA-BDEA-D8500F49FC76}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{012D003F-895D-40AA-BDEA-D8500F49FC76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Categoria</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>Samsung Galaxy S25 ultra</t>
+  </si>
+  <si>
+    <t>Desktops</t>
+  </si>
+  <si>
+    <t>Mac</t>
+  </si>
+  <si>
+    <t>iMac</t>
   </si>
 </sst>
 </file>
@@ -461,15 +470,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4250F871-21CA-4777-B2E6-BF9AACCED7DB}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -495,7 +504,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -507,7 +516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="147" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="152.25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -521,7 +530,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -532,7 +541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -541,6 +550,20 @@
       </c>
       <c r="D6" s="2">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/ProductosBusqueda.xlsx
+++ b/target/classes/ProductosBusqueda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natalia\Desktop\Universidad_6\Calidad\STORE_2511\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35643175-D48E-493E-925B-E79DA8BDB741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA31281-3517-4D85-95C8-1C129A6106BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{012D003F-895D-40AA-BDEA-D8500F49FC76}"/>
+    <workbookView xWindow="3555" yWindow="2535" windowWidth="21600" windowHeight="11295" xr2:uid="{012D003F-895D-40AA-BDEA-D8500F49FC76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Categoria</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>iMac</t>
+  </si>
+  <si>
+    <t>ExpectedResult</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
   </si>
 </sst>
 </file>
@@ -103,23 +112,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color rgb="FF444444"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="17"/>
-      <color rgb="FF444444"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,15 +155,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,15 +476,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4250F871-21CA-4777-B2E6-BF9AACCED7DB}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,79 +497,102 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2">
-        <v>100</v>
+      <c r="D2" s="3">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>2</v>
       </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="152.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>-1</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>0</v>
       </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>5</v>
       </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/ProductosBusqueda.xlsx
+++ b/target/classes/ProductosBusqueda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natalia\Desktop\Universidad_6\Calidad\STORE_2511\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA31281-3517-4D85-95C8-1C129A6106BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1BA621-187E-441E-9663-F77364B2CBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="2535" windowWidth="21600" windowHeight="11295" xr2:uid="{012D003F-895D-40AA-BDEA-D8500F49FC76}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{012D003F-895D-40AA-BDEA-D8500F49FC76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Categoria</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Nikon D300</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S25 ultra</t>
   </si>
   <si>
     <t>Desktops</t>
@@ -476,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4250F871-21CA-4777-B2E6-BF9AACCED7DB}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +495,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="63" x14ac:dyDescent="0.25">
@@ -513,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -528,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="63" x14ac:dyDescent="0.25">
@@ -545,7 +542,7 @@
         <v>-1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -560,39 +557,24 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
